--- a/dashboard_loader/indigenous_naplan_uploader/indigenous_naplan.xlsx
+++ b/dashboard_loader/indigenous_naplan_uploader/indigenous_naplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">Results also vary by State and Territory. Each State and Territory has its own trajectory for each measure with trajectory points. These trajectory points make possible the annual assessment of whether progress is occurring at a sufficient rate to meet the target. In 2017, Across the eight jurisdictions and the eight result areas, 29 of the 64 measures were on track (i.e. consistent with or above, the required trajectory points). All jurisdictions are on track for Year 9 Numeracy.</t>
   </si>
   <si>
-    <t xml:space="preserve">Another way to assess progress is to see whether the latest results for Aboriginal and Torres Strait Islander students have improved. Between 2008 and 2017, at the national level, half of the eight areas showed statistically significant improvements in the proportion of Aboriginal and Torres Strait Islander students at or above the NMS. The four areas with significant improvement were Year 3 and 5 reading, and Years 5 and 9 numeracy.</t>
+    <t xml:space="preserve">Another way to assess progress is to see whether the latest results for Aboriginal and Torres Strait Islander students have improved. Between 2008 and 2017, at the national level, half of the eight areas showed statistically significant improvements in the proportion of Aboriginal and Torres Strait Islander students at or above the NMS. The four areas with significant improvement were Years 3 and 5 reading, and Years 5 and 9 numeracy.</t>
   </si>
   <si>
     <t xml:space="preserve">Overall there has been significant improvement in Indigenous student results for 19 of the 64 state-level measures (numeracy and reading across four year levels in eight jurisdictions). There was only one significant decline - Tasmania in Year 9 reading. Queensland has shown the largest improvements, with significant improvement for Indigenous students in five of the eight measures from 2008 to 2017 (Years 3 and 5 reading and numeracy and Year 9 numeracy).</t>
@@ -263,7 +263,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -282,10 +282,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -403,13 +399,13 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.33"/>
   </cols>
   <sheetData>
@@ -599,7 +595,7 @@
       <c r="K5" s="3" t="n">
         <v>57</v>
       </c>
-      <c r="L5" s="5" t="n">
+      <c r="L5" s="3" t="n">
         <v>83.5</v>
       </c>
     </row>
@@ -637,7 +633,7 @@
       <c r="K6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -675,7 +671,7 @@
       <c r="K7" s="3" t="n">
         <v>6.4</v>
       </c>
-      <c r="L7" s="5" t="n">
+      <c r="L7" s="3" t="n">
         <v>1.3</v>
       </c>
     </row>
@@ -713,7 +709,7 @@
       <c r="K8" s="3" t="n">
         <v>45.4</v>
       </c>
-      <c r="L8" s="5" t="n">
+      <c r="L8" s="3" t="n">
         <v>80.2</v>
       </c>
     </row>
@@ -789,7 +785,7 @@
       <c r="K10" s="3" t="n">
         <v>51.8</v>
       </c>
-      <c r="L10" s="5" t="n">
+      <c r="L10" s="3" t="n">
         <v>81.5</v>
       </c>
     </row>
@@ -827,7 +823,7 @@
       <c r="K11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -865,7 +861,7 @@
       <c r="K12" s="3" t="n">
         <v>8.8</v>
       </c>
-      <c r="L12" s="5" t="n">
+      <c r="L12" s="3" t="n">
         <v>1.4</v>
       </c>
     </row>
@@ -903,7 +899,7 @@
       <c r="K13" s="3" t="n">
         <v>46.4</v>
       </c>
-      <c r="L13" s="5" t="n">
+      <c r="L13" s="3" t="n">
         <v>79.9</v>
       </c>
     </row>
@@ -979,7 +975,7 @@
       <c r="K15" s="3" t="n">
         <v>55.2</v>
       </c>
-      <c r="L15" s="5" t="n">
+      <c r="L15" s="3" t="n">
         <v>81.3</v>
       </c>
     </row>
@@ -1017,7 +1013,7 @@
       <c r="K16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1055,7 +1051,7 @@
       <c r="K17" s="3" t="n">
         <v>8.6</v>
       </c>
-      <c r="L17" s="5" t="n">
+      <c r="L17" s="3" t="n">
         <v>1.4</v>
       </c>
     </row>
@@ -1093,7 +1089,7 @@
       <c r="K18" s="3" t="n">
         <v>60.6</v>
       </c>
-      <c r="L18" s="5" t="n">
+      <c r="L18" s="3" t="n">
         <v>84</v>
       </c>
     </row>
@@ -1169,7 +1165,7 @@
       <c r="K20" s="3" t="n">
         <v>69.2</v>
       </c>
-      <c r="L20" s="5" t="n">
+      <c r="L20" s="3" t="n">
         <v>85.4</v>
       </c>
     </row>
@@ -1207,7 +1203,7 @@
       <c r="K21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1245,7 +1241,7 @@
       <c r="K22" s="3" t="n">
         <v>7.4</v>
       </c>
-      <c r="L22" s="5" t="n">
+      <c r="L22" s="3" t="n">
         <v>1.3</v>
       </c>
     </row>
@@ -1283,7 +1279,7 @@
       <c r="K23" s="3" t="n">
         <v>43.3</v>
       </c>
-      <c r="L23" s="5" t="n">
+      <c r="L23" s="3" t="n">
         <v>81.6</v>
       </c>
     </row>
@@ -1359,7 +1355,7 @@
       <c r="K25" s="3" t="n">
         <v>50.7</v>
       </c>
-      <c r="L25" s="5" t="n">
+      <c r="L25" s="3" t="n">
         <v>82.9</v>
       </c>
     </row>
@@ -1397,7 +1393,7 @@
       <c r="K26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1435,7 +1431,7 @@
       <c r="K27" s="3" t="n">
         <v>6.4</v>
       </c>
-      <c r="L27" s="5" t="n">
+      <c r="L27" s="3" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -1473,7 +1469,7 @@
       <c r="K28" s="3" t="n">
         <v>34.8</v>
       </c>
-      <c r="L28" s="5" t="n">
+      <c r="L28" s="3" t="n">
         <v>75.5</v>
       </c>
     </row>
@@ -1549,7 +1545,7 @@
       <c r="K30" s="3" t="n">
         <v>41.2</v>
       </c>
-      <c r="L30" s="5" t="n">
+      <c r="L30" s="3" t="n">
         <v>77</v>
       </c>
     </row>
@@ -1587,7 +1583,7 @@
       <c r="K31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1625,7 +1621,7 @@
       <c r="K32" s="3" t="n">
         <v>9.4</v>
       </c>
-      <c r="L32" s="5" t="n">
+      <c r="L32" s="3" t="n">
         <v>1.6</v>
       </c>
     </row>
@@ -1663,7 +1659,7 @@
       <c r="K33" s="3" t="n">
         <v>32.2</v>
       </c>
-      <c r="L33" s="5" t="n">
+      <c r="L33" s="3" t="n">
         <v>74.4</v>
       </c>
     </row>
@@ -1739,7 +1735,7 @@
       <c r="K35" s="3" t="n">
         <v>41.6</v>
       </c>
-      <c r="L35" s="5" t="n">
+      <c r="L35" s="3" t="n">
         <v>76</v>
       </c>
     </row>
@@ -1777,7 +1773,7 @@
       <c r="K36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="L36" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1815,7 +1811,7 @@
       <c r="K37" s="3" t="n">
         <v>9.8</v>
       </c>
-      <c r="L37" s="5" t="n">
+      <c r="L37" s="3" t="n">
         <v>1.7</v>
       </c>
     </row>
@@ -1853,7 +1849,7 @@
       <c r="K38" s="3" t="n">
         <v>31.3</v>
       </c>
-      <c r="L38" s="5" t="n">
+      <c r="L38" s="3" t="n">
         <v>70.6</v>
       </c>
     </row>
@@ -1991,8 +1987,8 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2003,78 +1999,78 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="9" t="n">
         <v>2017</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="11" t="s">
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2082,7 +2078,7 @@
       <c r="A12" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>38</v>
       </c>
     </row>
